--- a/medicine/Sexualité et sexologie/Anthologie_historique_des_lectures_érotiques/Anthologie_historique_des_lectures_érotiques.xlsx
+++ b/medicine/Sexualité et sexologie/Anthologie_historique_des_lectures_érotiques/Anthologie_historique_des_lectures_érotiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthologie_historique_des_lectures_%C3%A9rotiques</t>
+          <t>Anthologie_historique_des_lectures_érotiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Anthologie historique des lectures érotiques est un ouvrage de Jean-Jacques Pauvert publié d'abord en trois volumes en 1979, en quatre à partir de 1995 puis enfin en cinq suite à l'ajout d'un dernier tome en 2001, et traitant l'évolution de la littérature érotique de l'épopée de Gilgamesh à l'an 2000[1]. 
+L'Anthologie historique des lectures érotiques est un ouvrage de Jean-Jacques Pauvert publié d'abord en trois volumes en 1979, en quatre à partir de 1995 puis enfin en cinq suite à l'ajout d'un dernier tome en 2001, et traitant l'évolution de la littérature érotique de l'épopée de Gilgamesh à l'an 2000. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthologie_historique_des_lectures_%C3%A9rotiques</t>
+          <t>Anthologie_historique_des_lectures_érotiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthologie se divise dans sa version la plus récente en cinq volumes :
 De Gilgamesh à Saint-Just (de -2000 à 1790)
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthologie_historique_des_lectures_%C3%A9rotiques</t>
+          <t>Anthologie_historique_des_lectures_érotiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,13 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean-Jacques Pauvert, Anthologie historique des lectures érotiques, trois volumes, Paris, France loisirs, 1979-1982[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean-Jacques Pauvert, Anthologie historique des lectures érotiques, trois volumes, Paris, France loisirs, 1979-1982.
 Jean-Jacques Pauvert, Anthologie historique des lectures érotiques, quatre volumes, Paris, Stock / Spengler, 1995.
-Jean-Jacques Pauvert, De l'infini au zéro (1985-2000), Paris, Stock, 2001, 717 p.[3]</t>
+Jean-Jacques Pauvert, De l'infini au zéro (1985-2000), Paris, Stock, 2001, 717 p.</t>
         </is>
       </c>
     </row>
